--- a/TRenesasAll_80H/bom_price.xlsx
+++ b/TRenesasAll_80H/bom_price.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BB55D9-23F6-C047-AC9F-739372BDC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bom_price" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bom_price" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,14 +414,3005 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D707305E-F1CE-1A43-A0C4-768AD7A067F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HA-2600</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HA5023IBZ IC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>深圳市阿里芯城电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>￥150</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HA5023IBZ IC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>深圳市阿里芯城电子科技有限公司</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>￥150</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HA5023IP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>￥2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HA5023IPZ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>＄4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HAF1004-L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>￥2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HAF1010RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>深圳市粤金朋电子有限公司</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HAF1010RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>深圳市粤金朋电子有限公司</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HAF2015RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>￥2.4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HAF2015RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>￥2.4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HAF2026RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HAF2026RJ-EL-E</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HC55185AIMZ</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HC55185DIMZ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>￥20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HC55185ECMZ96R4854</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>￥73.5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023/02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HC55185ECR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>￥5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HC55185FCMZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>＄6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>&gt;10k</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HC55185GIMZ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>深圳市兴勇发电子有限公司</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>11+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HC5549CM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>深圳市森湖泰电子商行</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PLCC28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>￥22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HD74HC245RPEL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HD74HC245RPEL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HD74HC373RPVEL-E-Q</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HD74LS373RPEL-E</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>盛博电子有限公司</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>￥3.5</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HFA1105IB</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>深圳市福田区捷胜微电子商行</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96+PBF</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>￥2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HFA1105IP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HFA1105IP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>￥15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HFA1130IBZ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>￥26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HFA1130IBZ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>￥26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HFA1130IJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>￥21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HFA1135IBZ 其他被动元件</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>深圳市兴联微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>￥35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HFA1135IBZ 其他被动元件</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>深圳市兴联微电子有限公司</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>￥35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HFA3046BZ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>￥550</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HFA3046BZ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>￥550</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HFA3046BZ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>￥550</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1月内</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HFA3046BZ96</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金诺源电子</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>11+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>￥8</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HFA3096BZ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>深圳市景德裕科技有限公司</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SOP16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>￥30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HFA3096B96</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>￥3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HFA3096BZ96</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>50-100</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HFA3101BZ 其他被动元件</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>深圳市福田区佳思达电子商行</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1536+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>￥60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HFA3101BZ 其他被动元件</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>深圳市福田区佳思达电子商行</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SOP8</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1536+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>￥60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HFA3102B</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HFA3102B</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>￥1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HFA3127BZ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>深圳市吉之欣电子有限公司</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>16SOP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>￥11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HFA3127BZ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>深圳市吉之欣电子有限公司</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16SOP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>￥11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HFA3127BZ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>深圳市吉之欣电子有限公司</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16SOP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>07+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>￥11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>&lt;50</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HFA3127RZ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>＄4</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HFA3127RZ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>＄4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HFA3134IH96</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>深圳市新亚洲电子市场宏佳电子商行</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SOT23-6</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>05+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>￥4</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>5k-10k</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HFA3134IHZ96</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HFA3134IHZ96</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>￥1.5</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HFA3135IHZ96</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>＄3</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HI508/883</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>￥45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HI5085</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>￥6</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>100-500</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HI-574AJD-5</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>￥96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>50-100</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HI5760BIB</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>￥10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>500-1K</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HI7190IBZ</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>深圳市金联成泰电子有限公司</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SOP20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HI7190IBZ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>深圳市金联成泰电子有限公司</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SOP20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22+</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>￥120</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2023/03</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HI7190IBZ-T</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>深圳市世通八达电子有限公司</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SOP20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21+</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>￥100</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1K-5k</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HI7190IPZ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>￥26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>50-100</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HI7190IPZ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Renesas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>《此供应商选择了隐藏公司名》</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>￥26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>两年前</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>50-100</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>